--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>company</t>
   </si>
@@ -25,13 +25,28 @@
     <t>active</t>
   </si>
   <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>sgrhdtjgf</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
+    <t>BC</t>
+  </si>
+  <si>
     <t>asset_type</t>
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>#562c33</t>
   </si>
   <si>
     <t>weight</t>
@@ -438,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,6 +464,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -457,15 +488,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -476,18 +515,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -522,10 +572,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -541,25 +591,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>company</t>
   </si>
@@ -25,28 +25,19 @@
     <t>active</t>
   </si>
   <si>
-    <t>test123</t>
+    <t>jkugjyh</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>sgrhdtjgf</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
     <t>asset_type</t>
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>#562c33</t>
   </si>
   <si>
     <t>weight</t>
@@ -453,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,14 +463,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -488,23 +471,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -515,29 +490,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +517,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -572,10 +536,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -591,25 +555,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -625,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>company</t>
   </si>
@@ -31,13 +31,31 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>NHS</t>
+  </si>
+  <si>
+    <t>32gre</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>vds</t>
+  </si>
+  <si>
     <t>asset_type</t>
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>Cableway</t>
+  </si>
+  <si>
+    <t>#f8261e</t>
   </si>
   <si>
     <t>weight</t>
@@ -444,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,6 +481,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -471,15 +505,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -490,18 +540,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +578,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -536,10 +597,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -555,25 +616,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -589,10 +650,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>company</t>
   </si>
@@ -25,27 +25,18 @@
     <t>active</t>
   </si>
   <si>
-    <t>jkugjyh</t>
+    <t>NHS</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>NHS</t>
-  </si>
-  <si>
-    <t>32gre</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t>BC</t>
   </si>
   <si>
-    <t>vds</t>
-  </si>
-  <si>
     <t>asset_type</t>
   </si>
   <si>
@@ -55,7 +46,7 @@
     <t>Cableway</t>
   </si>
   <si>
-    <t>#f8261e</t>
+    <t>#086119</t>
   </si>
   <si>
     <t>weight</t>
@@ -462,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,22 +472,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -505,12 +480,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -518,18 +493,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -545,24 +512,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +545,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -597,10 +564,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -616,25 +583,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -650,10 +617,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>company</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>bgwrer</t>
   </si>
   <si>
     <t>location</t>
@@ -453,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,6 +475,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -480,12 +491,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -493,10 +504,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -512,24 +531,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -564,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -583,25 +602,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -617,10 +636,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>company</t>
   </si>
@@ -31,9 +31,6 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>bgwrer</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>Cableway</t>
   </si>
   <si>
-    <t>#086119</t>
+    <t>#213916</t>
   </si>
   <si>
     <t>weight</t>
@@ -456,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,14 +472,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -491,12 +480,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -504,18 +493,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -531,24 +512,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +545,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -583,10 +564,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -602,25 +583,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -636,10 +617,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Companies" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Locations" state="visible" r:id="rId5"/>
@@ -17,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>company</t>
   </si>
@@ -46,7 +49,13 @@
     <t>Cableway</t>
   </si>
   <si>
-    <t>#213916</t>
+    <t>#0088ff</t>
+  </si>
+  <si>
+    <t>Weir</t>
+  </si>
+  <si>
+    <t>#eeff00</t>
   </si>
   <si>
     <t>weight</t>
@@ -454,7 +463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -481,7 +493,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -507,8 +522,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -532,6 +552,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -541,11 +572,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -560,14 +594,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -579,29 +616,32 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -613,14 +653,17 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>company</t>
   </si>
@@ -34,12 +34,21 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>WSC</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
     <t>BC</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
     <t>asset_type</t>
   </si>
   <si>
@@ -55,7 +64,13 @@
     <t>Weir</t>
   </si>
   <si>
-    <t>#eeff00</t>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>#3eead6</t>
+  </si>
+  <si>
+    <t>#c425c8</t>
   </si>
   <si>
     <t>weight</t>
@@ -462,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -484,6 +499,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -492,7 +515,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -500,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -508,10 +531,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +561,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C5" sqref="C5"/>
@@ -532,35 +571,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +640,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -601,10 +662,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -623,25 +684,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -3,9 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
-  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Companies" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Locations" state="visible" r:id="rId5"/>
@@ -20,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>company</t>
   </si>
@@ -28,49 +25,13 @@
     <t>active</t>
   </si>
   <si>
-    <t>NHS</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>WSC</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>YT</t>
-  </si>
-  <si>
     <t>asset_type</t>
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>Cableway</t>
-  </si>
-  <si>
-    <t>#0088ff</t>
-  </si>
-  <si>
-    <t>Weir</t>
-  </si>
-  <si>
-    <t>#ff0000</t>
-  </si>
-  <si>
-    <t>#3eead6</t>
-  </si>
-  <si>
-    <t>#c425c8</t>
   </si>
   <si>
     <t>weight</t>
@@ -477,11 +438,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -491,244 +449,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>company</t>
   </si>
@@ -25,13 +25,28 @@
     <t>active</t>
   </si>
   <si>
+    <t>NHS</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
+    <t>BC</t>
+  </si>
+  <si>
     <t>asset_type</t>
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>Cableway</t>
+  </si>
+  <si>
+    <t>#0558ff</t>
   </si>
   <si>
     <t>weight</t>
@@ -438,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,50 +464,83 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -503,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -511,7 +559,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -522,15 +570,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -541,30 +589,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -575,14 +623,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>company</t>
   </si>
@@ -31,10 +31,16 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>5hty</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
     <t>BC</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
   <si>
     <t>asset_type</t>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,6 +478,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -480,12 +494,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -493,10 +507,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -512,30 +534,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -570,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -589,25 +611,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -623,10 +645,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>company</t>
   </si>
@@ -31,18 +31,12 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>5hty</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t>BC</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>asset_type</t>
   </si>
   <si>
@@ -52,7 +46,7 @@
     <t>Cableway</t>
   </si>
   <si>
-    <t>#0558ff</t>
+    <t>#3b92d7</t>
   </si>
   <si>
     <t>weight</t>
@@ -459,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,14 +472,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -494,12 +480,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -507,18 +493,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -534,30 +512,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +551,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -592,10 +570,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -611,25 +589,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -645,10 +623,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -46,7 +46,7 @@
     <t>Cableway</t>
   </si>
   <si>
-    <t>#3b92d7</t>
+    <t>#fc5d37</t>
   </si>
   <si>
     <t>weight</t>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>company</t>
   </si>
@@ -37,6 +37,9 @@
     <t>BC</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
     <t>asset_type</t>
   </si>
   <si>
@@ -46,7 +49,10 @@
     <t>Cableway</t>
   </si>
   <si>
-    <t>#fc5d37</t>
+    <t>#bc97a3</t>
+  </si>
+  <si>
+    <t>#2df207</t>
   </si>
   <si>
     <t>weight</t>
@@ -480,7 +486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,6 +505,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -507,12 +521,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -521,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -535,7 +549,21 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +579,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -570,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -589,25 +617,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -623,10 +651,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>company</t>
   </si>
@@ -40,6 +40,9 @@
     <t>AB</t>
   </si>
   <si>
+    <t>YT</t>
+  </si>
+  <si>
     <t>asset_type</t>
   </si>
   <si>
@@ -52,7 +55,22 @@
     <t>#bc97a3</t>
   </si>
   <si>
-    <t>#2df207</t>
+    <t>#f2c007</t>
+  </si>
+  <si>
+    <t>Weir</t>
+  </si>
+  <si>
+    <t>#55e925</t>
+  </si>
+  <si>
+    <t>#3933f1</t>
+  </si>
+  <si>
+    <t>Metering Bridge</t>
+  </si>
+  <si>
+    <t>#f22121</t>
   </si>
   <si>
     <t>weight</t>
@@ -486,7 +504,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,6 +531,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -521,12 +547,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -535,12 +561,12 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -549,12 +575,12 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -563,7 +589,49 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -598,10 +666,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -617,25 +685,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -651,10 +719,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>company</t>
   </si>
@@ -37,40 +37,10 @@
     <t>BC</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>YT</t>
-  </si>
-  <si>
     <t>asset_type</t>
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>Cableway</t>
-  </si>
-  <si>
-    <t>#bc97a3</t>
-  </si>
-  <si>
-    <t>#f2c007</t>
-  </si>
-  <si>
-    <t>Weir</t>
-  </si>
-  <si>
-    <t>#55e925</t>
-  </si>
-  <si>
-    <t>#3933f1</t>
-  </si>
-  <si>
-    <t>Metering Bridge</t>
-  </si>
-  <si>
-    <t>#f22121</t>
   </si>
   <si>
     <t>weight</t>
@@ -504,7 +474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,22 +493,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -547,12 +501,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -561,77 +515,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +531,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -666,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -685,25 +569,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -719,10 +603,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -11,13 +11,15 @@
     <sheet sheetId="5" name="Workplan Constants" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="Algorithm Parameters" state="visible" r:id="rId9"/>
     <sheet sheetId="7" name="Workplan Details" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="Status Colors" state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="Settings" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>company</t>
   </si>
@@ -43,6 +45,12 @@
     <t>color</t>
   </si>
   <si>
+    <t>Cableway</t>
+  </si>
+  <si>
+    <t>#fff700</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
@@ -71,6 +79,42 @@
   </si>
   <si>
     <t>Selected</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>#8e8e8e</t>
+  </si>
+  <si>
+    <t>Mothballed</t>
+  </si>
+  <si>
+    <t>#a87ecb</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>#999999</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>applyStatusColorsOnMap</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>applyRepairColorsOnMap</t>
   </si>
 </sst>
 </file>
@@ -501,7 +545,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,6 +562,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -531,7 +589,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -550,10 +608,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -569,44 +627,122 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>company</t>
   </si>
@@ -27,28 +27,13 @@
     <t>active</t>
   </si>
   <si>
-    <t>NHS</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
     <t>asset_type</t>
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>Cableway</t>
-  </si>
-  <si>
-    <t>#fff700</t>
   </si>
   <si>
     <t>weight</t>
@@ -491,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -500,253 +485,223 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>company</t>
   </si>
@@ -27,13 +27,28 @@
     <t>active</t>
   </si>
   <si>
+    <t>NHS</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
+    <t>BC</t>
+  </si>
+  <si>
     <t>asset_type</t>
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>Cableway</t>
+  </si>
+  <si>
+    <t>#4e9686</t>
   </si>
   <si>
     <t>weight</t>
@@ -476,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,53 +502,83 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -544,7 +589,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -552,7 +597,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -563,15 +608,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -582,92 +627,92 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -678,30 +723,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>company</t>
   </si>
@@ -33,6 +33,9 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -48,7 +51,10 @@
     <t>Cableway</t>
   </si>
   <si>
-    <t>#4e9686</t>
+    <t>#cd197e</t>
+  </si>
+  <si>
+    <t>#196ce1</t>
   </si>
   <si>
     <t>weight</t>
@@ -111,10 +117,10 @@
     <t>applyStatusColorsOnMap</t>
   </si>
   <si>
+    <t>applyRepairColorsOnMap</t>
+  </si>
+  <si>
     <t>FALSE</t>
-  </si>
-  <si>
-    <t>applyRepairColorsOnMap</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,6 +516,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -518,12 +532,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -531,12 +545,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -545,36 +567,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -589,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -608,10 +644,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -627,87 +663,87 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -723,26 +759,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>company</t>
   </si>
@@ -39,6 +39,9 @@
     <t>BC</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
     <t>asset_type</t>
   </si>
   <si>
@@ -49,6 +52,15 @@
   </si>
   <si>
     <t>#ff0000</t>
+  </si>
+  <si>
+    <t>Weir</t>
+  </si>
+  <si>
+    <t>#00a80e</t>
+  </si>
+  <si>
+    <t>#70ffdb</t>
   </si>
   <si>
     <t>weight</t>
@@ -518,7 +530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,6 +549,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -545,12 +565,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -559,12 +579,12 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -573,7 +593,35 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +637,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -608,10 +656,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -627,25 +675,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -661,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -680,34 +728,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -723,26 +771,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>company</t>
   </si>
@@ -42,12 +42,6 @@
     <t>BC</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>\\int.ec.gc.ca\shares\ECCC\PVM\GV1\WSCInfrastructure\Stations_Alberta</t>
-  </si>
-  <si>
     <t>asset_type</t>
   </si>
   <si>
@@ -57,13 +51,7 @@
     <t>Cableway</t>
   </si>
   <si>
-    <t>#6a3a31</t>
-  </si>
-  <si>
-    <t>\\Ecbcv6cwvfsp001.ncr.int.ec.gc.ca\msc$\401\WSCConstruction\Stations</t>
-  </si>
-  <si>
-    <t>#36d227</t>
+    <t>#ccf610</t>
   </si>
   <si>
     <t>weight</t>
@@ -533,7 +521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,31 +543,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -588,15 +565,15 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -605,33 +582,88 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -641,122 +673,50 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -772,26 +732,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
